--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2568.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2568.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9992102693014949</v>
+        <v>1.083020329475403</v>
       </c>
       <c r="B1">
-        <v>1.561446218006088</v>
+        <v>0.8870450854301453</v>
       </c>
       <c r="C1">
-        <v>3.440383807083427</v>
+        <v>2.505175352096558</v>
       </c>
       <c r="D1">
-        <v>2.200671649491568</v>
+        <v>5.400112628936768</v>
       </c>
       <c r="E1">
-        <v>0.7554592739781555</v>
+        <v>1.093494176864624</v>
       </c>
     </row>
   </sheetData>
